--- a/biology/Médecine/Artériole/Artériole.xlsx
+++ b/biology/Médecine/Artériole/Artériole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A9riole</t>
+          <t>Artériole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une artériole ou artère précapillaire, est un vaisseau sanguin de 40 à 110 µm de diamètre qui se raccorde et se ramifie au départ d'une artère vers des terminaisons artérielles débouchant sur des capillaires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A9riole</t>
+          <t>Artériole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Notion de « résistance vasculaire »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artérioles ont de petites parois musculaires.
 Elles sont le site primaire de la résistance vasculaire. En effet, la tension des artères irriguant le corps est la résultante de l'interaction entre le débit cardiaque (le volume de sang que le cœur pompe par minute) et la résistance vasculaire, que les médecins et chercheurs appellent habituellement résistance totale périphérique, les artérioles peuvent donc contrôler la pression artérielle moyenne (PAM) et les débits locaux (volume de sang dirigé vers des organes précis) en agissant sur cette résistance vasculaire, et ce grâce à leur vasomotricité (leur faculté de changer de diamètre). 
